--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lgi3-Stx1a.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lgi3-Stx1a.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.271846125105469</v>
+        <v>0.2994946666666667</v>
       </c>
       <c r="H2">
-        <v>0.271846125105469</v>
+        <v>0.8984840000000001</v>
       </c>
       <c r="I2">
-        <v>0.4946525460930711</v>
+        <v>0.4989451716962827</v>
       </c>
       <c r="J2">
-        <v>0.4946525460930711</v>
+        <v>0.4989451716962828</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.626149446147205</v>
+        <v>0.951641</v>
       </c>
       <c r="N2">
-        <v>0.626149446147205</v>
+        <v>2.854923</v>
       </c>
       <c r="O2">
-        <v>0.1357264935766919</v>
+        <v>0.1812272686155736</v>
       </c>
       <c r="P2">
-        <v>0.1357264935766919</v>
+        <v>0.1812272686155736</v>
       </c>
       <c r="Q2">
-        <v>0.1702163006720532</v>
+        <v>0.2850114040813334</v>
       </c>
       <c r="R2">
-        <v>0.1702163006720532</v>
+        <v>2.565102636732</v>
       </c>
       <c r="S2">
-        <v>0.06713745561999554</v>
+        <v>0.09042247065544572</v>
       </c>
       <c r="T2">
-        <v>0.06713745561999554</v>
+        <v>0.09042247065544572</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.271846125105469</v>
+        <v>0.2994946666666667</v>
       </c>
       <c r="H3">
-        <v>0.271846125105469</v>
+        <v>0.8984840000000001</v>
       </c>
       <c r="I3">
-        <v>0.4946525460930711</v>
+        <v>0.4989451716962827</v>
       </c>
       <c r="J3">
-        <v>0.4946525460930711</v>
+        <v>0.4989451716962828</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.27630747906149</v>
+        <v>2.566336</v>
       </c>
       <c r="N3">
-        <v>2.27630747906149</v>
+        <v>7.699008000000001</v>
       </c>
       <c r="O3">
-        <v>0.4934209146657636</v>
+        <v>0.4887242811415405</v>
       </c>
       <c r="P3">
-        <v>0.4934209146657636</v>
+        <v>0.4887242811415405</v>
       </c>
       <c r="Q3">
-        <v>0.6188053677314647</v>
+        <v>0.7686039448746668</v>
       </c>
       <c r="R3">
-        <v>0.6188053677314647</v>
+        <v>6.917435503872001</v>
       </c>
       <c r="S3">
-        <v>0.244071911734992</v>
+        <v>0.2438466203663083</v>
       </c>
       <c r="T3">
-        <v>0.244071911734992</v>
+        <v>0.2438466203663083</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.271846125105469</v>
+        <v>0.2994946666666667</v>
       </c>
       <c r="H4">
-        <v>0.271846125105469</v>
+        <v>0.8984840000000001</v>
       </c>
       <c r="I4">
-        <v>0.4946525460930711</v>
+        <v>0.4989451716962827</v>
       </c>
       <c r="J4">
-        <v>0.4946525460930711</v>
+        <v>0.4989451716962828</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.71086085562236</v>
+        <v>1.733114666666667</v>
       </c>
       <c r="N4">
-        <v>1.71086085562236</v>
+        <v>5.199344</v>
       </c>
       <c r="O4">
-        <v>0.3708525917575444</v>
+        <v>0.330048450242886</v>
       </c>
       <c r="P4">
-        <v>0.3708525917575444</v>
+        <v>0.330048450242886</v>
       </c>
       <c r="Q4">
-        <v>0.4650908941955658</v>
+        <v>0.5190585993884445</v>
       </c>
       <c r="R4">
-        <v>0.4650908941955658</v>
+        <v>4.671527394496001</v>
       </c>
       <c r="S4">
-        <v>0.1834431787380836</v>
+        <v>0.1646760806745288</v>
       </c>
       <c r="T4">
-        <v>0.1834431787380836</v>
+        <v>0.1646760806745288</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2777237239787</v>
+        <v>0.300761</v>
       </c>
       <c r="H5">
-        <v>0.2777237239787</v>
+        <v>0.9022829999999999</v>
       </c>
       <c r="I5">
-        <v>0.505347453906929</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="J5">
-        <v>0.505347453906929</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.626149446147205</v>
+        <v>0.951641</v>
       </c>
       <c r="N5">
-        <v>0.626149446147205</v>
+        <v>2.854923</v>
       </c>
       <c r="O5">
-        <v>0.1357264935766919</v>
+        <v>0.1812272686155736</v>
       </c>
       <c r="P5">
-        <v>0.1357264935766919</v>
+        <v>0.1812272686155736</v>
       </c>
       <c r="Q5">
-        <v>0.1738965559512022</v>
+        <v>0.286216498801</v>
       </c>
       <c r="R5">
-        <v>0.1738965559512022</v>
+        <v>2.575948489209</v>
       </c>
       <c r="S5">
-        <v>0.06858903795669644</v>
+        <v>0.09080479796012786</v>
       </c>
       <c r="T5">
-        <v>0.06858903795669644</v>
+        <v>0.09080479796012786</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2777237239787</v>
+        <v>0.300761</v>
       </c>
       <c r="H6">
-        <v>0.2777237239787</v>
+        <v>0.9022829999999999</v>
       </c>
       <c r="I6">
-        <v>0.505347453906929</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="J6">
-        <v>0.505347453906929</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.27630747906149</v>
+        <v>2.566336</v>
       </c>
       <c r="N6">
-        <v>2.27630747906149</v>
+        <v>7.699008000000001</v>
       </c>
       <c r="O6">
-        <v>0.4934209146657636</v>
+        <v>0.4887242811415405</v>
       </c>
       <c r="P6">
-        <v>0.4934209146657636</v>
+        <v>0.4887242811415405</v>
       </c>
       <c r="Q6">
-        <v>0.6321845900055236</v>
+        <v>0.7718537816960001</v>
       </c>
       <c r="R6">
-        <v>0.6321845900055236</v>
+        <v>6.946684035264</v>
       </c>
       <c r="S6">
-        <v>0.2493490029307717</v>
+        <v>0.2448776607752322</v>
       </c>
       <c r="T6">
-        <v>0.2493490029307717</v>
+        <v>0.2448776607752322</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2777237239787</v>
+        <v>0.300761</v>
       </c>
       <c r="H7">
-        <v>0.2777237239787</v>
+        <v>0.9022829999999999</v>
       </c>
       <c r="I7">
-        <v>0.505347453906929</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="J7">
-        <v>0.505347453906929</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.71086085562236</v>
+        <v>1.733114666666667</v>
       </c>
       <c r="N7">
-        <v>1.71086085562236</v>
+        <v>5.199344</v>
       </c>
       <c r="O7">
-        <v>0.3708525917575444</v>
+        <v>0.330048450242886</v>
       </c>
       <c r="P7">
-        <v>0.3708525917575444</v>
+        <v>0.330048450242886</v>
       </c>
       <c r="Q7">
-        <v>0.4751466480328267</v>
+        <v>0.5212533002613333</v>
       </c>
       <c r="R7">
-        <v>0.4751466480328267</v>
+        <v>4.691279702351999</v>
       </c>
       <c r="S7">
-        <v>0.1874094130194608</v>
+        <v>0.1653723695683572</v>
       </c>
       <c r="T7">
-        <v>0.1874094130194608</v>
+        <v>0.1653723695683572</v>
       </c>
     </row>
   </sheetData>
